--- a/CompetitionTask/CompetitionTask/ExcelData/ManageListing.xlsx
+++ b/CompetitionTask/CompetitionTask/ExcelData/ManageListing.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CompetitionTask\CompetitionTask\CompetitionTask\CompetitionTask\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F176F5-D5D9-4259-8C7B-D8C6EB55E738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C6E7D0-0172-4091-A96E-E707A60E5DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignIn" sheetId="1" r:id="rId1"/>
     <sheet name="ShareSkill" sheetId="2" r:id="rId2"/>
+    <sheet name="UpdateListing" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Email</t>
   </si>
@@ -92,6 +93,15 @@
   </si>
   <si>
     <t>End-Date</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>I am providing service to learn selenium basic in 30min</t>
+  </si>
+  <si>
+    <t>path</t>
   </si>
 </sst>
 </file>
@@ -458,7 +468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C635961F-2042-4224-BFA9-105F4B58649B}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -542,4 +552,36 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59EDEBE2-CEB2-454D-B5B4-631BBBAD2665}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CompetitionTask/CompetitionTask/ExcelData/ManageListing.xlsx
+++ b/CompetitionTask/CompetitionTask/ExcelData/ManageListing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CompetitionTask\CompetitionTask\CompetitionTask\CompetitionTask\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C6E7D0-0172-4091-A96E-E707A60E5DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A91663A-1720-4F9E-96CA-4E91A8C60497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Email</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>Tag</t>
-  </si>
-  <si>
-    <t>I am providing service to learn selenium basic in 30min</t>
   </si>
   <si>
     <t>path</t>
@@ -558,7 +555,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59EDEBE2-CEB2-454D-B5B4-631BBBAD2665}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -575,13 +574,14 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>